--- a/Code/Results/Cases/Case_6_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.71135683517331</v>
+        <v>25.29996711258984</v>
       </c>
       <c r="C2">
-        <v>19.18363305319565</v>
+        <v>18.71228480845797</v>
       </c>
       <c r="D2">
-        <v>3.217173322133096</v>
+        <v>3.712146929608755</v>
       </c>
       <c r="E2">
-        <v>30.3600916865368</v>
+        <v>30.09909619486758</v>
       </c>
       <c r="F2">
-        <v>35.62934804107206</v>
+        <v>17.29995100477344</v>
       </c>
       <c r="G2">
-        <v>2.028556747338335</v>
+        <v>2.043908991759249</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.63422686101433</v>
+        <v>12.85740437499536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.87092423550293</v>
+        <v>23.62815818503516</v>
       </c>
       <c r="C3">
-        <v>17.85885287661228</v>
+        <v>17.57199810504749</v>
       </c>
       <c r="D3">
-        <v>3.300450179365874</v>
+        <v>3.59749845654556</v>
       </c>
       <c r="E3">
-        <v>28.03091200125172</v>
+        <v>27.88810281571637</v>
       </c>
       <c r="F3">
-        <v>33.51463141538132</v>
+        <v>16.59918913251505</v>
       </c>
       <c r="G3">
-        <v>2.0417810374665</v>
+        <v>2.051043767845554</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.13104527075353</v>
+        <v>12.58751217609842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.68650989541188</v>
+        <v>22.54360327761605</v>
       </c>
       <c r="C4">
-        <v>17.00776188675489</v>
+        <v>16.83526365874935</v>
       </c>
       <c r="D4">
-        <v>3.355941251736332</v>
+        <v>3.52557780570322</v>
       </c>
       <c r="E4">
-        <v>26.54876554466452</v>
+        <v>26.46895975988465</v>
       </c>
       <c r="F4">
-        <v>32.20967218362821</v>
+        <v>16.18963647903519</v>
       </c>
       <c r="G4">
-        <v>2.05000089627632</v>
+        <v>2.055526369339835</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.21324314298057</v>
+        <v>12.44897348634373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.18982791406768</v>
+        <v>22.08694938015413</v>
       </c>
       <c r="C5">
-        <v>16.65121901917305</v>
+        <v>16.52587764114491</v>
       </c>
       <c r="D5">
-        <v>3.37950865062309</v>
+        <v>3.495912843721074</v>
       </c>
       <c r="E5">
-        <v>25.93092560151328</v>
+        <v>25.87476459299183</v>
       </c>
       <c r="F5">
-        <v>31.6764042882853</v>
+        <v>16.02808891136416</v>
       </c>
       <c r="G5">
-        <v>2.053381267973238</v>
+        <v>2.057380137012054</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.8406169617647</v>
+        <v>12.39910515610767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.10649766354818</v>
+        <v>22.01023280990493</v>
       </c>
       <c r="C6">
-        <v>16.59142199804159</v>
+        <v>16.47395282490013</v>
       </c>
       <c r="D6">
-        <v>3.383476028085912</v>
+        <v>3.490966312316401</v>
       </c>
       <c r="E6">
-        <v>25.82747616107077</v>
+        <v>25.77512858479971</v>
       </c>
       <c r="F6">
-        <v>31.58777353777387</v>
+        <v>16.00159092923052</v>
       </c>
       <c r="G6">
-        <v>2.053944581305099</v>
+        <v>2.057689629650083</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.77883107577984</v>
+        <v>12.39121446165241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.67986868772519</v>
+        <v>22.53750426788427</v>
       </c>
       <c r="C7">
-        <v>17.00299306494977</v>
+        <v>16.83112818660618</v>
       </c>
       <c r="D7">
-        <v>3.356255392559123</v>
+        <v>3.525179139713766</v>
       </c>
       <c r="E7">
-        <v>26.54049018631829</v>
+        <v>26.46101104974458</v>
       </c>
       <c r="F7">
-        <v>32.20248603825582</v>
+        <v>16.18743596040857</v>
       </c>
       <c r="G7">
-        <v>2.050046353925252</v>
+        <v>2.055551258424835</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.20821196707133</v>
+        <v>12.44827462669676</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.08784172958108</v>
+        <v>24.73551876822906</v>
       </c>
       <c r="C8">
-        <v>18.73450985562591</v>
+        <v>18.32672470576455</v>
       </c>
       <c r="D8">
-        <v>3.244887746641872</v>
+        <v>3.672947966652</v>
       </c>
       <c r="E8">
-        <v>29.56729240299772</v>
+        <v>29.34927899219527</v>
       </c>
       <c r="F8">
-        <v>34.90158119184625</v>
+        <v>17.05411325291636</v>
       </c>
       <c r="G8">
-        <v>2.033099256192522</v>
+        <v>2.046348848654694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.11487574463534</v>
+        <v>12.75856900286797</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.39616766244236</v>
+        <v>28.58992846810307</v>
       </c>
       <c r="C9">
-        <v>21.84411156128736</v>
+        <v>20.96886708758742</v>
       </c>
       <c r="D9">
-        <v>3.0693200141961</v>
+        <v>3.949617738405437</v>
       </c>
       <c r="E9">
-        <v>35.13077723849054</v>
+        <v>34.54416360005662</v>
       </c>
       <c r="F9">
-        <v>40.14632992382582</v>
+        <v>18.91209816875176</v>
       </c>
       <c r="G9">
-        <v>2.000369731670092</v>
+        <v>2.029038174210461</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.89788932598431</v>
+        <v>13.59170467945748</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.33812861265639</v>
+        <v>31.15142394177832</v>
       </c>
       <c r="C10">
-        <v>23.97627958725299</v>
+        <v>22.73412734669457</v>
       </c>
       <c r="D10">
-        <v>2.981553258234314</v>
+        <v>4.143847419069998</v>
       </c>
       <c r="E10">
-        <v>39.06009593708727</v>
+        <v>38.10541674315333</v>
       </c>
       <c r="F10">
-        <v>44.22562801319111</v>
+        <v>20.38886581392283</v>
       </c>
       <c r="G10">
-        <v>1.976145983533202</v>
+        <v>2.016655865023573</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.97261294729136</v>
+        <v>14.35070574762169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.63594986616413</v>
+        <v>32.25993359089113</v>
       </c>
       <c r="C11">
-        <v>24.91937481091575</v>
+        <v>23.49970860925271</v>
       </c>
       <c r="D11">
-        <v>2.955270762622535</v>
+        <v>4.230104353320521</v>
       </c>
       <c r="E11">
-        <v>40.83325777346965</v>
+        <v>39.67789339784365</v>
       </c>
       <c r="F11">
-        <v>46.10919476509399</v>
+        <v>21.22734920633514</v>
       </c>
       <c r="G11">
-        <v>1.964949476566954</v>
+        <v>2.011067233912697</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.4509647332461</v>
+        <v>14.87826780171814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.12240291255503</v>
+        <v>32.67171679903262</v>
       </c>
       <c r="C12">
-        <v>25.27329931641473</v>
+        <v>23.78431288322621</v>
       </c>
       <c r="D12">
-        <v>2.947796436102792</v>
+        <v>4.262459450767937</v>
       </c>
       <c r="E12">
-        <v>41.50481824305526</v>
+        <v>40.26726686840234</v>
       </c>
       <c r="F12">
-        <v>46.82288619451336</v>
+        <v>21.54455073492705</v>
       </c>
       <c r="G12">
-        <v>1.960669533891595</v>
+        <v>2.008954605753927</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.01133815445242</v>
+        <v>15.11967569243912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.01784417446033</v>
+        <v>32.58338413468086</v>
       </c>
       <c r="C13">
-        <v>25.19720588146043</v>
+        <v>23.72325271567975</v>
       </c>
       <c r="D13">
-        <v>2.949286469198359</v>
+        <v>4.255504983936887</v>
       </c>
       <c r="E13">
-        <v>41.36014090381692</v>
+        <v>40.14059250483027</v>
       </c>
       <c r="F13">
-        <v>46.66913344738362</v>
+        <v>21.47624739385649</v>
       </c>
       <c r="G13">
-        <v>1.961593346900858</v>
+        <v>2.009409481375788</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.89060424473647</v>
+        <v>15.0676721353962</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.67606562550277</v>
+        <v>32.29397023183068</v>
       </c>
       <c r="C14">
-        <v>24.94855235733031</v>
+        <v>23.52322896401704</v>
       </c>
       <c r="D14">
-        <v>2.954602804094298</v>
+        <v>4.232772432998961</v>
       </c>
       <c r="E14">
-        <v>40.88849111498508</v>
+        <v>39.7264988800388</v>
       </c>
       <c r="F14">
-        <v>46.16789226687138</v>
+        <v>21.25345106127958</v>
       </c>
       <c r="G14">
-        <v>1.964598261710037</v>
+        <v>2.010893369838714</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.49704778885168</v>
+        <v>14.89812336330235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.46609198796678</v>
+        <v>32.11566134438058</v>
       </c>
       <c r="C15">
-        <v>24.79584938514975</v>
+        <v>23.40002050082938</v>
       </c>
       <c r="D15">
-        <v>2.958199259308969</v>
+        <v>4.218807784540232</v>
       </c>
       <c r="E15">
-        <v>40.59967851276377</v>
+        <v>39.47208558971968</v>
       </c>
       <c r="F15">
-        <v>45.86097306770905</v>
+        <v>21.11694501275397</v>
       </c>
       <c r="G15">
-        <v>1.966433150830478</v>
+        <v>2.011802686326575</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.25609666558707</v>
+        <v>14.79430259681146</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.25256441593153</v>
+        <v>31.07785302841316</v>
       </c>
       <c r="C16">
-        <v>23.91415876811558</v>
+        <v>22.68334771287211</v>
       </c>
       <c r="D16">
-        <v>2.983586987830398</v>
+        <v>4.138167417121504</v>
       </c>
       <c r="E16">
-        <v>38.94410082074364</v>
+        <v>38.00175647449711</v>
       </c>
       <c r="F16">
-        <v>44.10250409080691</v>
+        <v>20.33401832548842</v>
       </c>
       <c r="G16">
-        <v>1.976872962344179</v>
+        <v>2.017021761641648</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.87600375542073</v>
+        <v>14.32663367291851</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.49826626302738</v>
+        <v>30.4267788538125</v>
       </c>
       <c r="C17">
-        <v>23.36681881033738</v>
+        <v>22.23415244515484</v>
       </c>
       <c r="D17">
-        <v>3.002988329414779</v>
+        <v>4.088153425241874</v>
       </c>
       <c r="E17">
-        <v>37.92617540688148</v>
+        <v>37.08807866683514</v>
       </c>
       <c r="F17">
-        <v>43.02282767388236</v>
+        <v>19.93861965021834</v>
       </c>
       <c r="G17">
-        <v>1.983222678836141</v>
+        <v>2.020232994310697</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.02896174019364</v>
+        <v>14.11944004746709</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.06054519893851</v>
+        <v>30.04694743802893</v>
       </c>
       <c r="C18">
-        <v>23.04943078503595</v>
+        <v>21.97225679478445</v>
       </c>
       <c r="D18">
-        <v>3.015394426902954</v>
+        <v>4.059189256481841</v>
       </c>
       <c r="E18">
-        <v>37.339190135647</v>
+        <v>36.55802883949859</v>
       </c>
       <c r="F18">
-        <v>42.40105099160532</v>
+        <v>19.7192276805242</v>
       </c>
       <c r="G18">
-        <v>1.986859244854376</v>
+        <v>2.02208434412206</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.54125238154861</v>
+        <v>14.00341954567542</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.91165357188758</v>
+        <v>29.91741909144879</v>
       </c>
       <c r="C19">
-        <v>22.94150910869882</v>
+        <v>21.88297495701935</v>
       </c>
       <c r="D19">
-        <v>3.019795168357791</v>
+        <v>4.049348848841611</v>
       </c>
       <c r="E19">
-        <v>37.14013139808099</v>
+        <v>36.37776445352551</v>
       </c>
       <c r="F19">
-        <v>42.19035743922801</v>
+        <v>19.64525149608287</v>
       </c>
       <c r="G19">
-        <v>1.988088235451917</v>
+        <v>2.022712000138715</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.37600291230562</v>
+        <v>13.96467469230426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.57895757753261</v>
+        <v>30.49663940566348</v>
       </c>
       <c r="C20">
-        <v>23.42534604038144</v>
+        <v>22.28233491534748</v>
       </c>
       <c r="D20">
-        <v>3.000790587426384</v>
+        <v>4.093497996693158</v>
       </c>
       <c r="E20">
-        <v>38.03467668099903</v>
+        <v>37.1858046053578</v>
       </c>
       <c r="F20">
-        <v>43.13783215512197</v>
+        <v>19.97936938415219</v>
       </c>
       <c r="G20">
-        <v>1.982548453402929</v>
+        <v>2.019890722975316</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.11917627334359</v>
+        <v>14.14116910386375</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.77658268302479</v>
+        <v>32.37919336988492</v>
       </c>
       <c r="C21">
-        <v>25.02166896658912</v>
+        <v>23.5821240268811</v>
       </c>
       <c r="D21">
-        <v>2.952969313829833</v>
+        <v>4.239457939530508</v>
       </c>
       <c r="E21">
-        <v>41.02700342302345</v>
+        <v>39.84828698316171</v>
       </c>
       <c r="F21">
-        <v>46.31509377224258</v>
+        <v>21.31889915448257</v>
       </c>
       <c r="G21">
-        <v>1.963716865847751</v>
+        <v>2.010457439416306</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.61261855036867</v>
+        <v>14.94791686169383</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.18420787939491</v>
+        <v>33.56309975540122</v>
       </c>
       <c r="C22">
-        <v>26.04669502215906</v>
+        <v>24.40074205320528</v>
       </c>
       <c r="D22">
-        <v>2.936487776340459</v>
+        <v>4.333052850282513</v>
       </c>
       <c r="E22">
-        <v>42.98468649707325</v>
+        <v>41.55330773732185</v>
       </c>
       <c r="F22">
-        <v>48.39509734424402</v>
+        <v>22.24171177571105</v>
       </c>
       <c r="G22">
-        <v>1.951166396647886</v>
+        <v>2.004312106826864</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.24627783738541</v>
+        <v>15.65111499022661</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.43523485393661</v>
+        <v>32.93541530105217</v>
       </c>
       <c r="C23">
-        <v>25.50103348816906</v>
+        <v>23.96662339225428</v>
       </c>
       <c r="D23">
-        <v>2.943730682373109</v>
+        <v>4.283265111233855</v>
       </c>
       <c r="E23">
-        <v>41.93878581001418</v>
+        <v>40.6462384662768</v>
       </c>
       <c r="F23">
-        <v>47.28404796711433</v>
+        <v>21.74929727521145</v>
       </c>
       <c r="G23">
-        <v>1.957892796535458</v>
+        <v>2.007591146489613</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.37350126973725</v>
+        <v>15.27563020456796</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.54248975532101</v>
+        <v>30.46507265713348</v>
       </c>
       <c r="C24">
-        <v>23.39889438365872</v>
+        <v>22.26056298690717</v>
       </c>
       <c r="D24">
-        <v>3.001780324344446</v>
+        <v>4.091082370915118</v>
       </c>
       <c r="E24">
-        <v>37.98562891247511</v>
+        <v>37.14163760331675</v>
       </c>
       <c r="F24">
-        <v>43.08584202271099</v>
+        <v>19.9609412022344</v>
       </c>
       <c r="G24">
-        <v>1.98285331317811</v>
+        <v>2.020045447546667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.07839265400312</v>
+        <v>14.13133575723807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.27222442447461</v>
+        <v>27.59528256260789</v>
       </c>
       <c r="C25">
-        <v>21.03146550505625</v>
+        <v>20.28516814104452</v>
       </c>
       <c r="D25">
-        <v>3.110894215482186</v>
+        <v>3.876297461711801</v>
       </c>
       <c r="E25">
-        <v>33.65921476221811</v>
+        <v>33.1860734708765</v>
       </c>
       <c r="F25">
-        <v>38.7312949959626</v>
+        <v>18.39326957451289</v>
       </c>
       <c r="G25">
-        <v>2.009214981021752</v>
+        <v>2.033653362898536</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.86871237857632</v>
+        <v>13.34113048339284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258984</v>
+        <v>24.84839658559463</v>
       </c>
       <c r="C2">
-        <v>18.71228480845797</v>
+        <v>19.93873420799482</v>
       </c>
       <c r="D2">
-        <v>3.712146929608755</v>
+        <v>4.586708026783628</v>
       </c>
       <c r="E2">
-        <v>30.09909619486758</v>
+        <v>29.93305073846738</v>
       </c>
       <c r="F2">
-        <v>17.29995100477344</v>
+        <v>13.97568432146294</v>
       </c>
       <c r="G2">
-        <v>2.043908991759249</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>15.98806595176637</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.796270858485443</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.691202379221048</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.932751901066109</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,42 +463,45 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.36906406814653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503516</v>
+        <v>23.25349338234998</v>
       </c>
       <c r="C3">
-        <v>17.57199810504749</v>
+        <v>18.79617397723388</v>
       </c>
       <c r="D3">
-        <v>3.59749845654556</v>
+        <v>4.36493518924318</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.77486821497253</v>
       </c>
       <c r="F3">
-        <v>16.59918913251505</v>
+        <v>13.55525661874456</v>
       </c>
       <c r="G3">
-        <v>2.051043767845554</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>15.35636500423623</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.618502753300433</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.752060724804338</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.310897754355191</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,42 +513,45 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.31916887865434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761605</v>
+        <v>22.21623451053856</v>
       </c>
       <c r="C4">
-        <v>16.83526365874935</v>
+        <v>18.06323534029438</v>
       </c>
       <c r="D4">
-        <v>3.52557780570322</v>
+        <v>4.223044122461438</v>
       </c>
       <c r="E4">
-        <v>26.46895975988465</v>
+        <v>26.38487150247589</v>
       </c>
       <c r="F4">
-        <v>16.18963647903519</v>
+        <v>13.30853692329332</v>
       </c>
       <c r="G4">
-        <v>2.055526369339835</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>14.98608398062231</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.506739470306683</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.795450144039172</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.54867319435342</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,42 +563,45 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.3029055349022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015413</v>
+        <v>21.7787759709468</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>17.76974228989417</v>
       </c>
       <c r="D5">
-        <v>3.495912843721074</v>
+        <v>4.165651350656747</v>
       </c>
       <c r="E5">
-        <v>25.87476459299183</v>
+        <v>25.80178006000706</v>
       </c>
       <c r="F5">
-        <v>16.02808891136416</v>
+        <v>13.20243361209783</v>
       </c>
       <c r="G5">
-        <v>2.057380137012054</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>14.82384459538592</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.460752617801821</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.812191728986377</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.643955419521106</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,42 +613,45 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.29337955727833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.70503699729187</v>
       </c>
       <c r="C6">
-        <v>16.47395282490013</v>
+        <v>17.7364133905242</v>
       </c>
       <c r="D6">
-        <v>3.490966312316401</v>
+        <v>4.15827562366335</v>
       </c>
       <c r="E6">
-        <v>25.77512858479971</v>
+        <v>25.70387570315073</v>
       </c>
       <c r="F6">
-        <v>16.00159092923052</v>
+        <v>13.17457481048066</v>
       </c>
       <c r="G6">
-        <v>2.057689629650083</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>14.77768531741674</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.453525395291554</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.812156601994428</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.656175598001212</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,42 +663,45 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.2842634694002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788427</v>
+        <v>22.20981790646908</v>
       </c>
       <c r="C7">
-        <v>16.83112818660618</v>
+        <v>18.1018078974024</v>
       </c>
       <c r="D7">
-        <v>3.525179139713766</v>
+        <v>4.22829692025538</v>
       </c>
       <c r="E7">
-        <v>26.46101104974458</v>
+        <v>26.37687698146048</v>
       </c>
       <c r="F7">
-        <v>16.18743596040857</v>
+        <v>13.27890736866125</v>
       </c>
       <c r="G7">
-        <v>2.055551258424835</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>14.93128463620083</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.507097300330663</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.787739728716187</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.539829353657817</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,42 +713,45 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.28166350259736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822906</v>
+        <v>24.30981903697333</v>
       </c>
       <c r="C8">
-        <v>18.32672470576455</v>
+        <v>19.60396896165097</v>
       </c>
       <c r="D8">
-        <v>3.672947966652</v>
+        <v>4.519021382030183</v>
       </c>
       <c r="E8">
-        <v>29.34927899219527</v>
+        <v>29.20192384281304</v>
       </c>
       <c r="F8">
-        <v>17.05411325291636</v>
+        <v>13.7924927764134</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>15.70048562789235</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.736495493297117</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.700343439483144</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.048379934265167</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,42 +763,45 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.32107529136565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810307</v>
+        <v>27.96990054049884</v>
       </c>
       <c r="C9">
-        <v>20.96886708758742</v>
+        <v>22.22816852554465</v>
       </c>
       <c r="D9">
-        <v>3.949617738405437</v>
+        <v>5.032318203396353</v>
       </c>
       <c r="E9">
-        <v>34.54416360005662</v>
+        <v>34.24139024512079</v>
       </c>
       <c r="F9">
-        <v>18.91209816875176</v>
+        <v>14.93429909228925</v>
       </c>
       <c r="G9">
-        <v>2.029038174210461</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>17.4284447137513</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.165740106033413</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.595032280353616</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>8.147077955402743</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,42 +813,45 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.59170467945748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.55780495573122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.15142394177832</v>
+        <v>30.38157712474249</v>
       </c>
       <c r="C10">
-        <v>22.73412734669457</v>
+        <v>24.01714965390513</v>
       </c>
       <c r="D10">
-        <v>4.143847419069998</v>
+        <v>5.382043380491305</v>
       </c>
       <c r="E10">
-        <v>38.10541674315333</v>
+        <v>37.65931884430444</v>
       </c>
       <c r="F10">
-        <v>20.38886581392283</v>
+        <v>15.80845248146884</v>
       </c>
       <c r="G10">
-        <v>2.016655865023573</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>18.74567139188649</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.471521104371474</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.551092990852244</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.506381927345275</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,42 +863,45 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10.80608637324684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089113</v>
+        <v>31.41868499535475</v>
       </c>
       <c r="C11">
-        <v>23.49970860925271</v>
+        <v>24.84900157296355</v>
       </c>
       <c r="D11">
-        <v>4.230104353320521</v>
+        <v>5.542247118998383</v>
       </c>
       <c r="E11">
-        <v>39.67789339784365</v>
+        <v>39.15719983893401</v>
       </c>
       <c r="F11">
-        <v>21.22734920633514</v>
+        <v>16.17832218717902</v>
       </c>
       <c r="G11">
-        <v>2.011067233912697</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.29475061381734</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.611041852938468</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.527527205865917</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.202221494254641</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,42 +913,45 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.90753691881247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.80327956474261</v>
       </c>
       <c r="C12">
-        <v>23.78431288322621</v>
+        <v>25.13029719109601</v>
       </c>
       <c r="D12">
-        <v>4.262459450767937</v>
+        <v>5.597640675401338</v>
       </c>
       <c r="E12">
-        <v>40.26726686840234</v>
+        <v>39.71693613594871</v>
       </c>
       <c r="F12">
-        <v>21.54455073492705</v>
+        <v>16.34012082562546</v>
       </c>
       <c r="G12">
-        <v>2.008954605753927</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>19.56833914665382</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.662541014457996</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.527032009775288</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.097671537148871</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,42 +963,45 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.96615131268526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468086</v>
+        <v>31.72089091339157</v>
       </c>
       <c r="C13">
-        <v>23.72325271567975</v>
+        <v>25.06429328367964</v>
       </c>
       <c r="D13">
-        <v>4.255504983936887</v>
+        <v>5.584910087386978</v>
       </c>
       <c r="E13">
-        <v>40.14059250483027</v>
+        <v>39.59675937209779</v>
       </c>
       <c r="F13">
-        <v>21.47624739385649</v>
+        <v>16.30922578984848</v>
       </c>
       <c r="G13">
-        <v>2.009409481375788</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>19.51635131816813</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.651187710838702</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.528466058726019</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.122137929862118</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,42 +1013,45 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.0676721353962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.95679034074753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183068</v>
+        <v>31.45052306005681</v>
       </c>
       <c r="C14">
-        <v>23.52322896401704</v>
+        <v>24.86982881387131</v>
       </c>
       <c r="D14">
-        <v>4.232772432998961</v>
+        <v>5.546463192039246</v>
       </c>
       <c r="E14">
-        <v>39.7264988800388</v>
+        <v>39.20341715786334</v>
       </c>
       <c r="F14">
-        <v>21.25345106127958</v>
+        <v>16.19332253361886</v>
       </c>
       <c r="G14">
-        <v>2.010893369838714</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.32023358475691</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.615162825879142</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.5280491042438</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.194440805962417</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,42 +1063,45 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.9137477408374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438058</v>
+        <v>31.28368367618788</v>
       </c>
       <c r="C15">
-        <v>23.40002050082938</v>
+        <v>24.76134243292661</v>
       </c>
       <c r="D15">
-        <v>4.218807784540232</v>
+        <v>5.524468383242728</v>
       </c>
       <c r="E15">
-        <v>39.47208558971968</v>
+        <v>38.96142295930562</v>
       </c>
       <c r="F15">
-        <v>21.11694501275397</v>
+        <v>16.11449205102144</v>
       </c>
       <c r="G15">
-        <v>2.011802686326575</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>19.19453192287529</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.59367140716027</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.525240221809186</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.234993350795371</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,42 +1113,45 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.88103413466105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841316</v>
+        <v>30.31147833700618</v>
       </c>
       <c r="C16">
-        <v>22.68334771287211</v>
+        <v>24.0589869737111</v>
       </c>
       <c r="D16">
-        <v>4.138167417121504</v>
+        <v>5.385859964611154</v>
       </c>
       <c r="E16">
-        <v>38.00175647449711</v>
+        <v>37.55968961143173</v>
       </c>
       <c r="F16">
-        <v>20.33401832548842</v>
+        <v>15.71571940541472</v>
       </c>
       <c r="G16">
-        <v>2.017021761641648</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>18.58832716614385</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.466543966362146</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.529630467312931</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.494215064381016</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,42 +1163,45 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.74240064769217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.4267788538125</v>
+        <v>29.69989624367194</v>
       </c>
       <c r="C17">
-        <v>22.23415244515484</v>
+        <v>23.61944246417363</v>
       </c>
       <c r="D17">
-        <v>4.088153425241874</v>
+        <v>5.299094987331443</v>
       </c>
       <c r="E17">
-        <v>37.08807866683514</v>
+        <v>36.6856004558313</v>
       </c>
       <c r="F17">
-        <v>19.93861965021834</v>
+        <v>15.47344009036605</v>
       </c>
       <c r="G17">
-        <v>2.020232994310697</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>18.21964581197619</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.38825550038686</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.534935856384205</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.655071649385286</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,42 +1213,45 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.66277191098593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.04694743802893</v>
+        <v>29.34288863731274</v>
       </c>
       <c r="C18">
-        <v>21.97225679478445</v>
+        <v>23.33326184321327</v>
       </c>
       <c r="D18">
-        <v>4.059189256481841</v>
+        <v>5.244086217425346</v>
       </c>
       <c r="E18">
-        <v>36.55802883949859</v>
+        <v>36.17768153612072</v>
       </c>
       <c r="F18">
-        <v>19.7192276805242</v>
+        <v>15.35632736450051</v>
       </c>
       <c r="G18">
-        <v>2.02208434412206</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>18.04690490639306</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.341191372628883</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.545937017052901</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.757650993507278</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,42 +1263,45 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.63654956132774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144879</v>
+        <v>29.2207778191987</v>
       </c>
       <c r="C19">
-        <v>21.88297495701935</v>
+        <v>23.25904545335703</v>
       </c>
       <c r="D19">
-        <v>4.049348848841611</v>
+        <v>5.228795432960335</v>
       </c>
       <c r="E19">
-        <v>36.37776445352551</v>
+        <v>36.00462989933404</v>
       </c>
       <c r="F19">
-        <v>19.64525149608287</v>
+        <v>15.30039787081109</v>
       </c>
       <c r="G19">
-        <v>2.022712000138715</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>17.95932612176894</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.326650886918753</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.544396125930792</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.785211467905826</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,42 +1313,45 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.61442067549778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566348</v>
+        <v>29.76560594763897</v>
       </c>
       <c r="C20">
-        <v>22.28233491534748</v>
+        <v>23.66421991911954</v>
       </c>
       <c r="D20">
-        <v>4.093497996693158</v>
+        <v>5.308049102561179</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>36.7792145882408</v>
       </c>
       <c r="F20">
-        <v>19.97936938415219</v>
+        <v>15.50079827809376</v>
       </c>
       <c r="G20">
-        <v>2.019890722975316</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>18.26171878796671</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.39644744457523</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.534826185572272</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.638623636058374</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,42 +1363,45 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.14116910386375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10.67242203452965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988492</v>
+        <v>31.52980104382704</v>
       </c>
       <c r="C21">
-        <v>23.5821240268811</v>
+        <v>24.95882613143375</v>
       </c>
       <c r="D21">
-        <v>4.239457939530508</v>
+        <v>5.562532623241677</v>
       </c>
       <c r="E21">
-        <v>39.84828698316171</v>
+        <v>39.31893683432246</v>
       </c>
       <c r="F21">
-        <v>21.31889915448257</v>
+        <v>16.20477707913865</v>
       </c>
       <c r="G21">
-        <v>2.010457439416306</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.33868538415305</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.62747269294665</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.520303270482795</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.162092199592293</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,42 +1413,45 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10.90719735371966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540122</v>
+        <v>32.63391367463033</v>
       </c>
       <c r="C22">
-        <v>24.40074205320528</v>
+        <v>25.73630803958524</v>
       </c>
       <c r="D22">
-        <v>4.333052850282513</v>
+        <v>5.717107380702392</v>
       </c>
       <c r="E22">
-        <v>41.55330773732185</v>
+        <v>40.9346245384311</v>
       </c>
       <c r="F22">
-        <v>22.24171177571105</v>
+        <v>16.70088260979348</v>
       </c>
       <c r="G22">
-        <v>2.004312106826864</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>20.17495603536447</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.775322650535893</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.529769365540357</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.871113300084278</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,42 +1463,45 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.10304860278868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>32.04955653203279</v>
       </c>
       <c r="C23">
-        <v>23.96662339225428</v>
+        <v>25.28601973325842</v>
       </c>
       <c r="D23">
-        <v>4.283265111233855</v>
+        <v>5.62945269298885</v>
       </c>
       <c r="E23">
-        <v>40.6462384662768</v>
+        <v>40.07646750425505</v>
       </c>
       <c r="F23">
-        <v>21.74929727521145</v>
+        <v>16.46239535313839</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>19.77518600243478</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.694686328842995</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.533280079034482</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.039331471200648</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,42 +1513,45 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.01973717043433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713348</v>
+        <v>29.73665539992691</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>23.58080796631335</v>
       </c>
       <c r="D24">
-        <v>4.091082370915118</v>
+        <v>5.294625507895032</v>
       </c>
       <c r="E24">
-        <v>37.14163760331675</v>
+        <v>36.73731286183921</v>
       </c>
       <c r="F24">
-        <v>19.9609412022344</v>
+        <v>15.53317685372293</v>
       </c>
       <c r="G24">
-        <v>2.020045447546667</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>18.32233319813379</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.389390655491413</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.549747379258269</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.666267268371321</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,42 +1563,45 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10.70518300716585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260789</v>
+        <v>27.02785095473981</v>
       </c>
       <c r="C25">
-        <v>20.28516814104452</v>
+        <v>21.61148170113209</v>
       </c>
       <c r="D25">
-        <v>3.876297461711801</v>
+        <v>4.9082869260103</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>32.92926395175462</v>
       </c>
       <c r="F25">
-        <v>18.39326957451289</v>
+        <v>14.57053711629772</v>
       </c>
       <c r="G25">
-        <v>2.033653362898536</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>16.86448366532857</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.053654879489152</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.602938767205647</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>8.36717873371988</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339284</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.44254957776042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.84839658559463</v>
+        <v>24.80827062327594</v>
       </c>
       <c r="C2">
-        <v>19.93873420799482</v>
+        <v>19.98329215480574</v>
       </c>
       <c r="D2">
-        <v>4.586708026783628</v>
+        <v>4.628756851897217</v>
       </c>
       <c r="E2">
-        <v>29.93305073846738</v>
+        <v>29.90401749628232</v>
       </c>
       <c r="F2">
-        <v>13.97568432146294</v>
+        <v>14.01203137503293</v>
       </c>
       <c r="G2">
-        <v>15.98806595176637</v>
+        <v>15.45729739986781</v>
       </c>
       <c r="I2">
-        <v>3.796270858485443</v>
+        <v>3.727548558890209</v>
       </c>
       <c r="J2">
-        <v>6.691202379221048</v>
+        <v>7.549823583767901</v>
       </c>
       <c r="K2">
-        <v>8.932751901066109</v>
+        <v>9.065337871296935</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.228108677998046</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.178815605325262</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,45 +475,51 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.36906406814653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.45346631366828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.25349338234998</v>
+        <v>23.22436192229007</v>
       </c>
       <c r="C3">
-        <v>18.79617397723388</v>
+        <v>18.75821260583777</v>
       </c>
       <c r="D3">
-        <v>4.36493518924318</v>
+        <v>4.393467443575102</v>
       </c>
       <c r="E3">
-        <v>27.77486821497253</v>
+        <v>27.75322064005456</v>
       </c>
       <c r="F3">
-        <v>13.55525661874456</v>
+        <v>13.63371682719005</v>
       </c>
       <c r="G3">
-        <v>15.35636500423623</v>
+        <v>14.82379155955793</v>
       </c>
       <c r="I3">
-        <v>3.618502753300433</v>
+        <v>3.569519643775586</v>
       </c>
       <c r="J3">
-        <v>6.752060724804338</v>
+        <v>7.586007285758738</v>
       </c>
       <c r="K3">
-        <v>9.310897754355191</v>
+        <v>9.419355448930261</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.471343646227018</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.522582931570431</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -519,45 +531,51 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.31916887865434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.42594284118851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21623451053856</v>
+        <v>22.19412041332638</v>
       </c>
       <c r="C4">
-        <v>18.06323534029438</v>
+        <v>17.97145628818679</v>
       </c>
       <c r="D4">
-        <v>4.223044122461438</v>
+        <v>4.242860043544983</v>
       </c>
       <c r="E4">
-        <v>26.38487150247589</v>
+        <v>26.36738524214176</v>
       </c>
       <c r="F4">
-        <v>13.30853692329332</v>
+        <v>13.41070340665883</v>
       </c>
       <c r="G4">
-        <v>14.98608398062231</v>
+        <v>14.45198420793174</v>
       </c>
       <c r="I4">
-        <v>3.506739470306683</v>
+        <v>3.470263661857146</v>
       </c>
       <c r="J4">
-        <v>6.795450144039172</v>
+        <v>7.61097014866156</v>
       </c>
       <c r="K4">
-        <v>9.54867319435342</v>
+        <v>9.641231030954565</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.629587576016508</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.755896629924164</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -569,45 +587,51 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.3029055349022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.42071024927319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.7787759709468</v>
+        <v>21.75960460183561</v>
       </c>
       <c r="C5">
-        <v>17.76974228989417</v>
+        <v>17.65501226662426</v>
       </c>
       <c r="D5">
-        <v>4.165651350656747</v>
+        <v>4.181756786844391</v>
       </c>
       <c r="E5">
-        <v>25.80178006000706</v>
+        <v>25.78590885771349</v>
       </c>
       <c r="F5">
-        <v>13.20243361209783</v>
+        <v>13.31393359852111</v>
       </c>
       <c r="G5">
-        <v>14.82384459538592</v>
+        <v>14.28893607083163</v>
       </c>
       <c r="I5">
-        <v>3.460752617801821</v>
+        <v>3.429698830146555</v>
       </c>
       <c r="J5">
-        <v>6.812191728986377</v>
+        <v>7.619622564667243</v>
       </c>
       <c r="K5">
-        <v>9.643955419521106</v>
+        <v>9.729831016589225</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.692661376783143</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.856026095773617</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -619,45 +643,51 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.29337955727833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.41521835481563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.70503699729187</v>
+        <v>21.68636175451742</v>
       </c>
       <c r="C6">
-        <v>17.7364133905242</v>
+        <v>17.61752316975046</v>
       </c>
       <c r="D6">
-        <v>4.15827562366335</v>
+        <v>4.173685871114407</v>
       </c>
       <c r="E6">
-        <v>25.70387570315073</v>
+        <v>25.68826937624007</v>
       </c>
       <c r="F6">
-        <v>13.17457481048066</v>
+        <v>13.28790364421069</v>
       </c>
       <c r="G6">
-        <v>14.77768531741674</v>
+        <v>14.24258431544483</v>
       </c>
       <c r="I6">
-        <v>3.453525395291554</v>
+        <v>3.423687298807462</v>
       </c>
       <c r="J6">
-        <v>6.812156601994428</v>
+        <v>7.618431145957899</v>
       </c>
       <c r="K6">
-        <v>9.656175598001212</v>
+        <v>9.740993468974198</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.698864925208548</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.872911684224883</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -669,45 +699,51 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.2842634694002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.4069806260331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.20981790646908</v>
+        <v>22.18746501288082</v>
       </c>
       <c r="C7">
-        <v>18.1018078974024</v>
+        <v>18.00304852697159</v>
       </c>
       <c r="D7">
-        <v>4.22829692025538</v>
+        <v>4.251546165018901</v>
       </c>
       <c r="E7">
-        <v>26.37687698146048</v>
+        <v>26.35919893424087</v>
       </c>
       <c r="F7">
-        <v>13.27890736866125</v>
+        <v>13.36596307152524</v>
       </c>
       <c r="G7">
-        <v>14.93128463620083</v>
+        <v>14.50069933545128</v>
       </c>
       <c r="I7">
-        <v>3.507097300330663</v>
+        <v>3.470997957002075</v>
       </c>
       <c r="J7">
-        <v>6.787739728716187</v>
+        <v>7.565070621108108</v>
       </c>
       <c r="K7">
-        <v>9.539829353657817</v>
+        <v>9.629617857501357</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.615242320488715</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.756348561726723</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -719,45 +755,51 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.28166350259736</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.38845747602833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.30981903697333</v>
+        <v>24.27259391344828</v>
       </c>
       <c r="C8">
-        <v>19.60396896165097</v>
+        <v>19.60161770784374</v>
       </c>
       <c r="D8">
-        <v>4.519021382030183</v>
+        <v>4.567852738582656</v>
       </c>
       <c r="E8">
-        <v>29.20192384281304</v>
+        <v>29.17477464862322</v>
       </c>
       <c r="F8">
-        <v>13.7924927764134</v>
+        <v>13.79319466963827</v>
       </c>
       <c r="G8">
-        <v>15.70048562789235</v>
+        <v>15.49704631384514</v>
       </c>
       <c r="I8">
-        <v>3.736495493297117</v>
+        <v>3.673972179868278</v>
       </c>
       <c r="J8">
-        <v>6.700343439483144</v>
+        <v>7.424802010088231</v>
       </c>
       <c r="K8">
-        <v>9.048379934265167</v>
+        <v>9.164159472355994</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.287324621009665</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.284018811993951</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -769,45 +811,51 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.32107529136565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.37593210580251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96990054049884</v>
+        <v>27.90605897320319</v>
       </c>
       <c r="C9">
-        <v>22.22816852554465</v>
+        <v>22.41214232915891</v>
       </c>
       <c r="D9">
-        <v>5.032318203396353</v>
+        <v>5.11450871256708</v>
       </c>
       <c r="E9">
-        <v>34.24139024512079</v>
+        <v>34.19282581743809</v>
       </c>
       <c r="F9">
-        <v>14.93429909228925</v>
+        <v>14.80893184958166</v>
       </c>
       <c r="G9">
-        <v>17.4284447137513</v>
+        <v>17.27823035635186</v>
       </c>
       <c r="I9">
-        <v>4.165740106033413</v>
+        <v>4.054830944858138</v>
       </c>
       <c r="J9">
-        <v>6.595032280353616</v>
+        <v>7.322811148445874</v>
       </c>
       <c r="K9">
-        <v>8.147077955402743</v>
+        <v>8.313258887721714</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.746148176981595</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.570370924713239</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -819,45 +867,51 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10.55780495573122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.53072436523974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.38157712474249</v>
+        <v>30.29721151123066</v>
       </c>
       <c r="C10">
-        <v>24.01714965390513</v>
+        <v>24.29507575579358</v>
       </c>
       <c r="D10">
-        <v>5.382043380491305</v>
+        <v>5.503905947820638</v>
       </c>
       <c r="E10">
-        <v>37.65931884430444</v>
+        <v>37.59028688571126</v>
       </c>
       <c r="F10">
-        <v>15.80845248146884</v>
+        <v>15.50383457088515</v>
       </c>
       <c r="G10">
-        <v>18.74567139188649</v>
+        <v>19.19951464316945</v>
       </c>
       <c r="I10">
-        <v>4.471521104371474</v>
+        <v>4.324808900812858</v>
       </c>
       <c r="J10">
-        <v>6.551092990852244</v>
+        <v>7.04152677152072</v>
       </c>
       <c r="K10">
-        <v>7.506381927345275</v>
+        <v>7.685944204412156</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.383982239430154</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.196515800350955</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -869,45 +923,51 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10.80608637324684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.64014759687152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.41868499535475</v>
+        <v>31.32296670979742</v>
       </c>
       <c r="C11">
-        <v>24.84900157296355</v>
+        <v>25.12039991445372</v>
       </c>
       <c r="D11">
-        <v>5.542247118998383</v>
+        <v>5.711576204461228</v>
       </c>
       <c r="E11">
-        <v>39.15719983893401</v>
+        <v>39.07523981643484</v>
       </c>
       <c r="F11">
-        <v>16.17832218717902</v>
+        <v>15.65373026301322</v>
       </c>
       <c r="G11">
-        <v>19.29475061381734</v>
+        <v>20.86120536702332</v>
       </c>
       <c r="I11">
-        <v>4.611041852938468</v>
+        <v>4.44618214195616</v>
       </c>
       <c r="J11">
-        <v>6.527527205865917</v>
+        <v>6.553353765910193</v>
       </c>
       <c r="K11">
-        <v>7.202221494254641</v>
+        <v>7.361531456449592</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.214568872404998</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.004284098389981</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -919,45 +979,51 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.90753691881247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.56173007203027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.80327956474261</v>
+        <v>31.7030474572789</v>
       </c>
       <c r="C12">
-        <v>25.13029719109601</v>
+        <v>25.39439476375159</v>
       </c>
       <c r="D12">
-        <v>5.597640675401338</v>
+        <v>5.788525120891337</v>
       </c>
       <c r="E12">
-        <v>39.71693613594871</v>
+        <v>39.62958635158752</v>
       </c>
       <c r="F12">
-        <v>16.34012082562546</v>
+        <v>15.71520666465349</v>
       </c>
       <c r="G12">
-        <v>19.56833914665382</v>
+        <v>21.61310608466476</v>
       </c>
       <c r="I12">
-        <v>4.662541014457996</v>
+        <v>4.489817469486888</v>
       </c>
       <c r="J12">
-        <v>6.527032009775288</v>
+        <v>6.34491320339651</v>
       </c>
       <c r="K12">
-        <v>7.097671537148871</v>
+        <v>7.243538563054147</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.156203384072976</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.942720009578119</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -969,45 +1035,51 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.96615131268526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.53675955878394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.72089091339157</v>
+        <v>31.62163656321301</v>
       </c>
       <c r="C13">
-        <v>25.06429328367964</v>
+        <v>25.33033544671051</v>
       </c>
       <c r="D13">
-        <v>5.584910087386978</v>
+        <v>5.77102158500788</v>
       </c>
       <c r="E13">
-        <v>39.59675937209779</v>
+        <v>39.51059033086921</v>
       </c>
       <c r="F13">
-        <v>16.30922578984848</v>
+        <v>15.7065197392201</v>
       </c>
       <c r="G13">
-        <v>19.51635131816813</v>
+        <v>21.45398918275394</v>
       </c>
       <c r="I13">
-        <v>4.651187710838702</v>
+        <v>4.48001439141603</v>
       </c>
       <c r="J13">
-        <v>6.528466058726019</v>
+        <v>6.391698663423642</v>
       </c>
       <c r="K13">
-        <v>7.122137929862118</v>
+        <v>7.270544722564232</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.169254175131522</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.958493212363187</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1019,45 +1091,51 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.95679034074753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.54590646951526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.45052306005681</v>
+        <v>31.35443612361308</v>
       </c>
       <c r="C14">
-        <v>24.86982881387131</v>
+        <v>25.1407910657193</v>
       </c>
       <c r="D14">
-        <v>5.546463192039246</v>
+        <v>5.717506533852555</v>
       </c>
       <c r="E14">
-        <v>39.20341715786334</v>
+        <v>39.12102279157295</v>
       </c>
       <c r="F14">
-        <v>16.19332253361886</v>
+        <v>15.66075099811096</v>
       </c>
       <c r="G14">
-        <v>19.32023358475691</v>
+        <v>20.92418463870166</v>
       </c>
       <c r="I14">
-        <v>4.615162825879142</v>
+        <v>4.449594529065402</v>
       </c>
       <c r="J14">
-        <v>6.5280491042438</v>
+        <v>6.537091450224124</v>
       </c>
       <c r="K14">
-        <v>7.194440805962417</v>
+        <v>7.352513910688099</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.209989327293183</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.000264744838383</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1069,45 +1147,51 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.9137477408374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.56129591854934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.28368367618788</v>
+        <v>31.18951677348493</v>
       </c>
       <c r="C15">
-        <v>24.76134243292661</v>
+        <v>25.03435189415422</v>
       </c>
       <c r="D15">
-        <v>5.524468383242728</v>
+        <v>5.686683660544163</v>
       </c>
       <c r="E15">
-        <v>38.96142295930562</v>
+        <v>38.88128027609009</v>
       </c>
       <c r="F15">
-        <v>16.11449205102144</v>
+        <v>15.6230010232472</v>
       </c>
       <c r="G15">
-        <v>19.19453192287529</v>
+        <v>20.59762719256909</v>
       </c>
       <c r="I15">
-        <v>4.59367140716027</v>
+        <v>4.43182276661367</v>
       </c>
       <c r="J15">
-        <v>6.525240221809186</v>
+        <v>6.620912000920606</v>
       </c>
       <c r="K15">
-        <v>7.234993350795371</v>
+        <v>7.399384090997958</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.233908609317904</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.021098587169731</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1119,45 +1203,51 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.88103413466105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.56274781751807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.31147833700618</v>
+        <v>30.22786329111454</v>
       </c>
       <c r="C16">
-        <v>24.0589869737111</v>
+        <v>24.33439618568248</v>
       </c>
       <c r="D16">
-        <v>5.385859964611154</v>
+        <v>5.504660793994551</v>
       </c>
       <c r="E16">
-        <v>37.55968961143173</v>
+        <v>37.49145927457708</v>
       </c>
       <c r="F16">
-        <v>15.71571940541472</v>
+        <v>15.42539285786462</v>
       </c>
       <c r="G16">
-        <v>18.58832716614385</v>
+        <v>18.98717134296221</v>
       </c>
       <c r="I16">
-        <v>4.466543966362146</v>
+        <v>4.3234457806551</v>
       </c>
       <c r="J16">
-        <v>6.529630467312931</v>
+        <v>7.049761597891814</v>
       </c>
       <c r="K16">
-        <v>7.494215064381016</v>
+        <v>7.680719100003462</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.381915935864031</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.171926356500961</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1169,45 +1259,51 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.74240064769217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.58875720019035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.69989624367194</v>
+        <v>29.62235199875415</v>
       </c>
       <c r="C17">
-        <v>23.61944246417363</v>
+        <v>23.88640811585326</v>
       </c>
       <c r="D17">
-        <v>5.299094987331443</v>
+        <v>5.397366938307913</v>
       </c>
       <c r="E17">
-        <v>36.6856004558313</v>
+        <v>36.62383045552407</v>
       </c>
       <c r="F17">
-        <v>15.47344009036605</v>
+        <v>15.27750399001506</v>
       </c>
       <c r="G17">
-        <v>18.21964581197619</v>
+        <v>18.15965722372578</v>
       </c>
       <c r="I17">
-        <v>4.38825550038686</v>
+        <v>4.256087828862168</v>
       </c>
       <c r="J17">
-        <v>6.534935856384205</v>
+        <v>7.24514635443694</v>
       </c>
       <c r="K17">
-        <v>7.655071649385286</v>
+        <v>7.848236664305102</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.474423456200695</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.26631426432074</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1219,45 +1315,51 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.66277191098593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.58470212791863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.34288863731274</v>
+        <v>29.26866910263311</v>
       </c>
       <c r="C18">
-        <v>23.33326184321327</v>
+        <v>23.59234927169369</v>
       </c>
       <c r="D18">
-        <v>5.244086217425346</v>
+        <v>5.332921370988922</v>
       </c>
       <c r="E18">
-        <v>36.17768153612072</v>
+        <v>36.11932182742332</v>
       </c>
       <c r="F18">
-        <v>15.35632736450051</v>
+        <v>15.20341069767889</v>
       </c>
       <c r="G18">
-        <v>18.04690490639306</v>
+        <v>17.78030367959337</v>
       </c>
       <c r="I18">
-        <v>4.341191372628883</v>
+        <v>4.214174804896246</v>
       </c>
       <c r="J18">
-        <v>6.545937017052901</v>
+        <v>7.33612004351315</v>
       </c>
       <c r="K18">
-        <v>7.757650993507278</v>
+        <v>7.950760951136597</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.53258031248609</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.33172382847691</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1269,45 +1371,51 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.63654956132774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.5921129488285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.2207778191987</v>
+        <v>29.14766539969173</v>
       </c>
       <c r="C19">
-        <v>23.25904545335703</v>
+        <v>23.5143232158329</v>
       </c>
       <c r="D19">
-        <v>5.228795432960335</v>
+        <v>5.314706098424239</v>
       </c>
       <c r="E19">
-        <v>36.00462989933404</v>
+        <v>35.94738029271354</v>
       </c>
       <c r="F19">
-        <v>15.30039787081109</v>
+        <v>15.1607690598816</v>
       </c>
       <c r="G19">
-        <v>17.95932612176894</v>
+        <v>17.63414023315192</v>
       </c>
       <c r="I19">
-        <v>4.326650886918753</v>
+        <v>4.202022584610271</v>
       </c>
       <c r="J19">
-        <v>6.544396125930792</v>
+        <v>7.35746455347291</v>
       </c>
       <c r="K19">
-        <v>7.785211467905826</v>
+        <v>7.979027984401569</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.548689370135973</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.346328791050383</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1319,45 +1427,51 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.61442067549778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.58042961328401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.76560594763897</v>
+        <v>29.6874305629771</v>
       </c>
       <c r="C20">
-        <v>23.66421991911954</v>
+        <v>23.93251638346926</v>
       </c>
       <c r="D20">
-        <v>5.308049102561179</v>
+        <v>5.408286410555917</v>
       </c>
       <c r="E20">
-        <v>36.7792145882408</v>
+        <v>36.71678762938397</v>
       </c>
       <c r="F20">
-        <v>15.50079827809376</v>
+        <v>15.29585852451792</v>
       </c>
       <c r="G20">
-        <v>18.26171878796671</v>
+        <v>18.24438387195766</v>
       </c>
       <c r="I20">
-        <v>4.39644744457523</v>
+        <v>4.263067455356188</v>
       </c>
       <c r="J20">
-        <v>6.534826185572272</v>
+        <v>7.227615253158794</v>
       </c>
       <c r="K20">
-        <v>7.638623636058374</v>
+        <v>7.831210168099008</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.464887874253947</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.256978831873567</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1369,45 +1483,51 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10.67242203452965</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.5871928427174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.52980104382704</v>
+        <v>31.43212847751868</v>
       </c>
       <c r="C21">
-        <v>24.95882613143375</v>
+        <v>25.21177408107766</v>
       </c>
       <c r="D21">
-        <v>5.562532623241677</v>
+        <v>5.748638771059281</v>
       </c>
       <c r="E21">
-        <v>39.31893683432246</v>
+        <v>39.23457508213217</v>
       </c>
       <c r="F21">
-        <v>16.20477707913865</v>
+        <v>15.60288010070476</v>
       </c>
       <c r="G21">
-        <v>19.33868538415305</v>
+        <v>21.33082003983041</v>
       </c>
       <c r="I21">
-        <v>4.62747269294665</v>
+        <v>4.459982094286934</v>
       </c>
       <c r="J21">
-        <v>6.520303270482795</v>
+        <v>6.375327586361271</v>
       </c>
       <c r="K21">
-        <v>7.162092199592293</v>
+        <v>7.310703155626</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.190592287713107</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.957405291072535</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1419,45 +1539,51 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10.90719735371966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.4977842985942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.63391367463033</v>
+        <v>32.52344523690049</v>
       </c>
       <c r="C22">
-        <v>25.73630803958524</v>
+        <v>25.97481556307743</v>
       </c>
       <c r="D22">
-        <v>5.717107380702392</v>
+        <v>5.961641608272001</v>
       </c>
       <c r="E22">
-        <v>40.9346245384311</v>
+        <v>40.83455353324034</v>
       </c>
       <c r="F22">
-        <v>16.70088260979348</v>
+        <v>15.82582702902374</v>
       </c>
       <c r="G22">
-        <v>20.17495603536447</v>
+        <v>23.4258544183636</v>
       </c>
       <c r="I22">
-        <v>4.775322650535893</v>
+        <v>4.584823211303961</v>
       </c>
       <c r="J22">
-        <v>6.529769365540357</v>
+        <v>5.863147427088546</v>
       </c>
       <c r="K22">
-        <v>6.871113300084278</v>
+        <v>6.979888159155398</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.033068648373437</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.114315411405516</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1469,45 +1595,51 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.10304860278868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.46261731428357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.04955653203279</v>
+        <v>31.94634794984504</v>
       </c>
       <c r="C23">
-        <v>25.28601973325842</v>
+        <v>25.54449280709482</v>
       </c>
       <c r="D23">
-        <v>5.62945269298885</v>
+        <v>5.835311438133448</v>
       </c>
       <c r="E23">
-        <v>40.07646750425505</v>
+        <v>39.98549532290842</v>
       </c>
       <c r="F23">
-        <v>16.46239535313839</v>
+        <v>15.7676232531978</v>
       </c>
       <c r="G23">
-        <v>19.77518600243478</v>
+        <v>22.1515707291177</v>
       </c>
       <c r="I23">
-        <v>4.694686328842995</v>
+        <v>4.516174878000983</v>
       </c>
       <c r="J23">
-        <v>6.533280079034482</v>
+        <v>6.209038136079113</v>
       </c>
       <c r="K23">
-        <v>7.039331471200648</v>
+        <v>7.172885216300445</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.121546751208108</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.954561088460844</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1519,45 +1651,51 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.01973717043433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.5315309573099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.73665539992691</v>
+        <v>29.65874168770681</v>
       </c>
       <c r="C24">
-        <v>23.58080796631335</v>
+        <v>23.84990506037693</v>
       </c>
       <c r="D24">
-        <v>5.294625507895032</v>
+        <v>5.394263540485101</v>
       </c>
       <c r="E24">
-        <v>36.73731286183921</v>
+        <v>36.67516931545286</v>
       </c>
       <c r="F24">
-        <v>15.53317685372293</v>
+        <v>15.33090183471377</v>
       </c>
       <c r="G24">
-        <v>18.32233319813379</v>
+        <v>18.28217578088324</v>
       </c>
       <c r="I24">
-        <v>4.389390655491413</v>
+        <v>4.254809331732808</v>
       </c>
       <c r="J24">
-        <v>6.549747379258269</v>
+        <v>7.248138015101628</v>
       </c>
       <c r="K24">
-        <v>7.666267268371321</v>
+        <v>7.855767398149534</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.478647264711991</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.283430062871771</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1569,45 +1707,51 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10.70518300716585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.62159758100992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.02785095473981</v>
+        <v>26.97147038360943</v>
       </c>
       <c r="C25">
-        <v>21.61148170113209</v>
+        <v>21.7535748317833</v>
       </c>
       <c r="D25">
-        <v>4.9082869260103</v>
+        <v>4.976917913269031</v>
       </c>
       <c r="E25">
-        <v>32.92926395175462</v>
+        <v>32.88733100013877</v>
       </c>
       <c r="F25">
-        <v>14.57053711629772</v>
+        <v>14.50313337280044</v>
       </c>
       <c r="G25">
-        <v>16.86448366532857</v>
+        <v>16.57240097030124</v>
       </c>
       <c r="I25">
-        <v>4.053654879489152</v>
+        <v>3.95757471244557</v>
       </c>
       <c r="J25">
-        <v>6.602938767205647</v>
+        <v>7.389635170629472</v>
       </c>
       <c r="K25">
-        <v>8.36717873371988</v>
+        <v>8.527297905740664</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.875126230946901</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.725284472487547</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1619,7 +1763,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10.44254957776042</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.45802438175439</v>
       </c>
     </row>
   </sheetData>
